--- a/data/trans_orig/P36B06_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>560594</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>541350</v>
+        <v>539415</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>581304</v>
+        <v>581312</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8088630612245926</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7810970405021219</v>
+        <v>0.7783045286306246</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8387454720302593</v>
+        <v>0.8387568353989868</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>594</v>
@@ -764,19 +764,19 @@
         <v>591502</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>571873</v>
+        <v>573593</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>607615</v>
+        <v>608714</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8593022041722704</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8307874228483699</v>
+        <v>0.8332860038595432</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8827111877307872</v>
+        <v>0.884308147700117</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1143</v>
@@ -785,19 +785,19 @@
         <v>1152095</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1126075</v>
+        <v>1127739</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1178074</v>
+        <v>1179080</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8339965884116703</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8151604834876615</v>
+        <v>0.8163647508352885</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8528022265887027</v>
+        <v>0.8535307749992423</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>132470</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>111760</v>
+        <v>111752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>151714</v>
+        <v>153649</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1911369387754073</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1612545279697405</v>
+        <v>0.161243164601013</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2189029594978782</v>
+        <v>0.2216954713693754</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>102</v>
@@ -835,19 +835,19 @@
         <v>96849</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>80736</v>
+        <v>79637</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>116478</v>
+        <v>114758</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1406977958277295</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1172888122692128</v>
+        <v>0.1156918522998829</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.16921257715163</v>
+        <v>0.1667139961404568</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>235</v>
@@ -856,19 +856,19 @@
         <v>229320</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>203341</v>
+        <v>202335</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>255340</v>
+        <v>253676</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1660034115883297</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1471977734112973</v>
+        <v>0.1464692250007577</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1848395165123383</v>
+        <v>0.1836352491647114</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>706003</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>681211</v>
+        <v>673180</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>737122</v>
+        <v>732161</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7348396645368725</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7090354667269537</v>
+        <v>0.7006759502674371</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7672294170300905</v>
+        <v>0.7620656508212175</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>711</v>
@@ -981,19 +981,19 @@
         <v>759514</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>731206</v>
+        <v>732329</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>784971</v>
+        <v>786951</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7851634142832259</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7558990141256993</v>
+        <v>0.7570599142598079</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8114801151651928</v>
+        <v>0.8135263164165314</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1375</v>
@@ -1002,19 +1002,19 @@
         <v>1465518</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1422199</v>
+        <v>1426446</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1505086</v>
+        <v>1502057</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7600873494005921</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7376202903729212</v>
+        <v>0.7398227654592575</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7806095411232471</v>
+        <v>0.779038533393863</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>254755</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>223636</v>
+        <v>228597</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>279547</v>
+        <v>287578</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2651603354631275</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2327705829699096</v>
+        <v>0.2379343491787822</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2909645332730463</v>
+        <v>0.2993240497325627</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>196</v>
@@ -1052,19 +1052,19 @@
         <v>207819</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>182362</v>
+        <v>180382</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>236127</v>
+        <v>235004</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2148365857167741</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1885198848348073</v>
+        <v>0.1864736835834691</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2441009858743008</v>
+        <v>0.2429400857401922</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>427</v>
@@ -1073,19 +1073,19 @@
         <v>462573</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>423005</v>
+        <v>426034</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>505892</v>
+        <v>501645</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2399126505994079</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2193904588767532</v>
+        <v>0.2209614666061371</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2623797096270789</v>
+        <v>0.2601772345407424</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>527010</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>502465</v>
+        <v>502479</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>547844</v>
+        <v>548533</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7767172730636817</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7405429096097055</v>
+        <v>0.7405637681779738</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8074237352118679</v>
+        <v>0.808439332205197</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>575</v>
@@ -1198,19 +1198,19 @@
         <v>565865</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>544164</v>
+        <v>545949</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>583369</v>
+        <v>583672</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8274798121855444</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7957457193294946</v>
+        <v>0.7983568505092298</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8530775948975352</v>
+        <v>0.8535193998925938</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1071</v>
@@ -1219,19 +1219,19 @@
         <v>1092874</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1063534</v>
+        <v>1063589</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1118871</v>
+        <v>1122816</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8021978827428413</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7806611333733751</v>
+        <v>0.7807014907806826</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8212799470054796</v>
+        <v>0.8241757760047201</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>151499</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130665</v>
+        <v>129976</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>176044</v>
+        <v>176030</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2232827269363183</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1925762647881321</v>
+        <v>0.191560667794803</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2594570903902945</v>
+        <v>0.2594362318220262</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>121</v>
@@ -1269,19 +1269,19 @@
         <v>117976</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>100472</v>
+        <v>100169</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>139677</v>
+        <v>137892</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1725201878144555</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1469224051024648</v>
+        <v>0.1464806001074062</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2042542806705056</v>
+        <v>0.2016431494907703</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>266</v>
@@ -1290,19 +1290,19 @@
         <v>269476</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>243479</v>
+        <v>239534</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>298816</v>
+        <v>298761</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1978021172571587</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1787200529945205</v>
+        <v>0.1758242239952799</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2193388666266249</v>
+        <v>0.219298509219317</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>702346</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>677662</v>
+        <v>674550</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>730445</v>
+        <v>725380</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7461132150042475</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.719890963190148</v>
+        <v>0.7165851148508015</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7759634047110893</v>
+        <v>0.770581922942837</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>803</v>
@@ -1415,19 +1415,19 @@
         <v>839554</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>813622</v>
+        <v>811513</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>866313</v>
+        <v>862710</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8091026258426527</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7841110578517648</v>
+        <v>0.782078677505773</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8348910365906503</v>
+        <v>0.8314189937633679</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1541</v>
@@ -1436,19 +1436,19 @@
         <v>1541901</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1506022</v>
+        <v>1504116</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1579324</v>
+        <v>1574213</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7791404400388531</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7610103247702947</v>
+        <v>0.7600471764200544</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7980508292911845</v>
+        <v>0.7954680211011831</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>238994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>210895</v>
+        <v>215960</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>263678</v>
+        <v>266790</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2538867849957525</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2240365952889107</v>
+        <v>0.229418077057163</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2801090368098518</v>
+        <v>0.2834148851491984</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>193</v>
@@ -1486,19 +1486,19 @@
         <v>198082</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>171323</v>
+        <v>174926</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>224014</v>
+        <v>226123</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1908973741573474</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1651089634093492</v>
+        <v>0.1685810062366321</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2158889421482346</v>
+        <v>0.2179213224942266</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>448</v>
@@ -1507,19 +1507,19 @@
         <v>437076</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>399653</v>
+        <v>404764</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>472955</v>
+        <v>474861</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2208595599611469</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2019491707088156</v>
+        <v>0.204531978898817</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2389896752297052</v>
+        <v>0.2399528235799457</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>2495953</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2446361</v>
+        <v>2447686</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2541360</v>
+        <v>2541805</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7624324004727626</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7472838513074984</v>
+        <v>0.7476885112648533</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.776302676384144</v>
+        <v>0.7764388177083755</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2683</v>
@@ -1632,19 +1632,19 @@
         <v>2756435</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2709991</v>
+        <v>2707242</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2799814</v>
+        <v>2797331</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8161987660817052</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8024462380335544</v>
+        <v>0.8016321527696091</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8290435107601938</v>
+        <v>0.8283081018421964</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5130</v>
@@ -1653,19 +1653,19 @@
         <v>5252388</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5181160</v>
+        <v>5190210</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5318619</v>
+        <v>5314565</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7897339003306083</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7790242503005844</v>
+        <v>0.7803849106857826</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7996922178556836</v>
+        <v>0.7990826702231252</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>777718</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>732311</v>
+        <v>731866</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>827310</v>
+        <v>825985</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2375675995272374</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2236973236158561</v>
+        <v>0.2235611822916247</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2527161486925016</v>
+        <v>0.2523114887351468</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>612</v>
@@ -1703,19 +1703,19 @@
         <v>620727</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>577348</v>
+        <v>579831</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>667171</v>
+        <v>669920</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1838012339182948</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1709564892398062</v>
+        <v>0.1716918981578034</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1975537619664456</v>
+        <v>0.1983678472303909</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1376</v>
@@ -1724,19 +1724,19 @@
         <v>1398445</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1332214</v>
+        <v>1336268</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1469673</v>
+        <v>1460623</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2102660996693916</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2003077821443166</v>
+        <v>0.200917329776875</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2209757496994156</v>
+        <v>0.2196150893142173</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>608734</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>588365</v>
+        <v>590723</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>625621</v>
+        <v>626155</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8653310932298198</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8363772211927778</v>
+        <v>0.8397280231794332</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8893376162517528</v>
+        <v>0.8900961553384309</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>584</v>
@@ -2089,19 +2089,19 @@
         <v>626569</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>610326</v>
+        <v>608269</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>643494</v>
+        <v>640692</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8988865147902727</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8755839857255715</v>
+        <v>0.8726331295089236</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9231681044973644</v>
+        <v>0.9191477769405688</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1166</v>
@@ -2110,19 +2110,19 @@
         <v>1235302</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1212190</v>
+        <v>1208456</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1259525</v>
+        <v>1257599</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8820319069573772</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.865529453351378</v>
+        <v>0.8628632752452896</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8993272755939964</v>
+        <v>0.8979523508232096</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>94735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77848</v>
+        <v>77314</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>115104</v>
+        <v>112746</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1346689067701801</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1106623837482473</v>
+        <v>0.1099038446615691</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1636227788072223</v>
+        <v>0.1602719768205668</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -2160,19 +2160,19 @@
         <v>70481</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>53556</v>
+        <v>56358</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>86724</v>
+        <v>88781</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1011134852097272</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07683189550263547</v>
+        <v>0.080852223059431</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1244160142744283</v>
+        <v>0.1273668704910763</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>158</v>
@@ -2181,19 +2181,19 @@
         <v>165217</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>140994</v>
+        <v>142920</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>188329</v>
+        <v>192063</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1179680930426228</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1006727244060035</v>
+        <v>0.1020476491767902</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1344705466486219</v>
+        <v>0.1371367247547103</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>835360</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>806817</v>
+        <v>809234</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>859765</v>
+        <v>857431</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8230198434353228</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7948979875572574</v>
+        <v>0.7972795086491821</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8470638646687533</v>
+        <v>0.8447644071022335</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>825</v>
@@ -2306,19 +2306,19 @@
         <v>904728</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>880384</v>
+        <v>880961</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>926592</v>
+        <v>924596</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8774418493669915</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8538322712729691</v>
+        <v>0.8543915120530748</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8986471565713309</v>
+        <v>0.8967113852580963</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1592</v>
@@ -2327,19 +2327,19 @@
         <v>1740088</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1704429</v>
+        <v>1703826</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1770547</v>
+        <v>1771034</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8504449930392276</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8330174343590201</v>
+        <v>0.832722473196146</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8653316271397005</v>
+        <v>0.8655696108950888</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>179634</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>155229</v>
+        <v>157563</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>208177</v>
+        <v>205760</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1769801565646773</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1529361353312467</v>
+        <v>0.1552355928977663</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2051020124427421</v>
+        <v>0.2027204913508179</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>114</v>
@@ -2377,19 +2377,19 @@
         <v>126369</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>104505</v>
+        <v>106501</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>150713</v>
+        <v>150136</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1225581506330084</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1013528434286691</v>
+        <v>0.1032886147419034</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1461677287270308</v>
+        <v>0.145608487946925</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>280</v>
@@ -2398,19 +2398,19 @@
         <v>306003</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>275544</v>
+        <v>275057</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>341662</v>
+        <v>342265</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1495550069607724</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1346683728602995</v>
+        <v>0.1344303891049113</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1669825656409799</v>
+        <v>0.167277526803854</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>632803</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>611969</v>
+        <v>612246</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>653666</v>
+        <v>652395</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8375792725119667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8100038562405935</v>
+        <v>0.8103695162755675</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8651933263975222</v>
+        <v>0.8635113559133408</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>608</v>
@@ -2523,19 +2523,19 @@
         <v>670885</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>648721</v>
+        <v>650761</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>687743</v>
+        <v>690142</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8656396318011246</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8370425492995348</v>
+        <v>0.8396744180840091</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8873922457370025</v>
+        <v>0.8904878053224092</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1179</v>
@@ -2544,19 +2544,19 @@
         <v>1303687</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1271025</v>
+        <v>1275225</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1331960</v>
+        <v>1331922</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8517882212998849</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8304477640399166</v>
+        <v>0.8331916892855389</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8702609390833631</v>
+        <v>0.8702355949505545</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>122711</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>101848</v>
+        <v>103119</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>143545</v>
+        <v>143268</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1624207274880333</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1348066736024777</v>
+        <v>0.1364886440866591</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1899961437594065</v>
+        <v>0.1896304837244325</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>95</v>
@@ -2594,19 +2594,19 @@
         <v>104131</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>87273</v>
+        <v>84874</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>126295</v>
+        <v>124255</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1343603681988755</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1126077542629975</v>
+        <v>0.1095121946775907</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1629574507004653</v>
+        <v>0.1603255819159912</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>211</v>
@@ -2615,19 +2615,19 @@
         <v>226843</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>198570</v>
+        <v>198608</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>259505</v>
+        <v>255305</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1482117787001152</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1297390609166369</v>
+        <v>0.1297644050494454</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1695522359600834</v>
+        <v>0.166808310714461</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>777383</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>754292</v>
+        <v>752298</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>800961</v>
+        <v>798787</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8202501214629149</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.79588564821813</v>
+        <v>0.7937814642470949</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8451280006932691</v>
+        <v>0.8428341012836736</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>873</v>
@@ -2740,19 +2740,19 @@
         <v>913679</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>889886</v>
+        <v>890219</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>934812</v>
+        <v>934591</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8719893518387165</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8492813586314628</v>
+        <v>0.8495993884196735</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8921579777470298</v>
+        <v>0.8919465737704922</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1612</v>
@@ -2761,19 +2761,19 @@
         <v>1691062</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1656470</v>
+        <v>1659675</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1721960</v>
+        <v>1723136</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8474170138041953</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.830082427412163</v>
+        <v>0.8316883476978004</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8629001883908806</v>
+        <v>0.8634898283899045</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>170356</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>146778</v>
+        <v>148952</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>193447</v>
+        <v>195441</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1797498785370851</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1548719993067307</v>
+        <v>0.1571658987163262</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.20411435178187</v>
+        <v>0.2062185357529047</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>127</v>
@@ -2811,19 +2811,19 @@
         <v>134131</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>112998</v>
+        <v>113219</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>157924</v>
+        <v>157591</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1280106481612835</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1078420222529705</v>
+        <v>0.1080534262295076</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1507186413685373</v>
+        <v>0.1504006115803264</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>298</v>
@@ -2832,19 +2832,19 @@
         <v>304487</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>273589</v>
+        <v>272413</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>339079</v>
+        <v>335874</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1525829861958047</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1370998116091195</v>
+        <v>0.1365101716100951</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.169917572587837</v>
+        <v>0.1683116523021995</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>2854281</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2808659</v>
+        <v>2803916</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2898738</v>
+        <v>2897401</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8341661578776421</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8208331059233854</v>
+        <v>0.8194471350238296</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8471589330775644</v>
+        <v>0.8467680524131014</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2890</v>
@@ -2957,19 +2957,19 @@
         <v>3115859</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3075683</v>
+        <v>3075593</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3154768</v>
+        <v>3152683</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8774666090020109</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8661523099731465</v>
+        <v>0.8661271599095631</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8884237513159238</v>
+        <v>0.8878365702009164</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5549</v>
@@ -2978,19 +2978,19 @@
         <v>5970140</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5908097</v>
+        <v>5909928</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6023373</v>
+        <v>6030399</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8562177219550016</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8473197714758804</v>
+        <v>0.8475823931239564</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.863852179062813</v>
+        <v>0.8648598947793267</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>567436</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>522979</v>
+        <v>524316</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>613058</v>
+        <v>617801</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1658338421223579</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1528410669224357</v>
+        <v>0.1532319475868985</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1791668940766148</v>
+        <v>0.1805528649761702</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>402</v>
@@ -3028,19 +3028,19 @@
         <v>435113</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>396204</v>
+        <v>398289</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>475289</v>
+        <v>475379</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1225333909979891</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1115762486840763</v>
+        <v>0.1121634297990835</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1338476900268535</v>
+        <v>0.133872840090437</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>947</v>
@@ -3049,19 +3049,19 @@
         <v>1002549</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>949316</v>
+        <v>942290</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1064592</v>
+        <v>1062761</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1437822780449984</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1361478209371872</v>
+        <v>0.1351401052206734</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1526802285241198</v>
+        <v>0.1524176068760435</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>544232</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>523428</v>
+        <v>519730</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>565208</v>
+        <v>563057</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8077646189001585</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7768864717024508</v>
+        <v>0.7713977065924615</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8388981224511908</v>
+        <v>0.8357041610345115</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>545</v>
@@ -3414,19 +3414,19 @@
         <v>551430</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>532798</v>
+        <v>532378</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>571156</v>
+        <v>570908</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8195567176650617</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7918651814054608</v>
+        <v>0.7912412823423195</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8488739598102735</v>
+        <v>0.8485065192452911</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1078</v>
@@ -3435,19 +3435,19 @@
         <v>1095662</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1067725</v>
+        <v>1067843</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1122036</v>
+        <v>1125899</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8136566768455108</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7929100233085854</v>
+        <v>0.7929976228914796</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8332428007839148</v>
+        <v>0.8361113470662956</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>129519</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108543</v>
+        <v>110694</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>150323</v>
+        <v>154021</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1922353810998415</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1611018775488092</v>
+        <v>0.1642958389654886</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2231135282975491</v>
+        <v>0.2286022934075385</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>121</v>
@@ -3485,19 +3485,19 @@
         <v>121409</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>101683</v>
+        <v>101931</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>140041</v>
+        <v>140461</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1804432823349383</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1511260401897266</v>
+        <v>0.151493480754709</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2081348185945397</v>
+        <v>0.2087587176576809</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>239</v>
@@ -3506,19 +3506,19 @@
         <v>250928</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>224554</v>
+        <v>220691</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>278865</v>
+        <v>278747</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1863433231544892</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1667571992160854</v>
+        <v>0.1638886529337042</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2070899766914149</v>
+        <v>0.2070023771085203</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>808804</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>782182</v>
+        <v>779840</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>834738</v>
+        <v>832767</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7932377573849081</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7671275739209376</v>
+        <v>0.7648307599024837</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8186719134505637</v>
+        <v>0.8167392569418824</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>783</v>
@@ -3631,19 +3631,19 @@
         <v>838736</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>811125</v>
+        <v>810638</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>866716</v>
+        <v>863585</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8071044690937473</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7805346877377388</v>
+        <v>0.7800668001364247</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8340293430673222</v>
+        <v>0.8310165343850185</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1536</v>
@@ -3652,19 +3652,19 @@
         <v>1647541</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1603923</v>
+        <v>1607363</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1682942</v>
+        <v>1681363</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8002370080664075</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7790512388485468</v>
+        <v>0.7807217993173292</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8174320057033363</v>
+        <v>0.8166651808911981</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>210820</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>184886</v>
+        <v>186857</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>237442</v>
+        <v>239784</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.206762242615092</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1813280865494363</v>
+        <v>0.1832607430581176</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2328724260790626</v>
+        <v>0.2351692400975163</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>191</v>
@@ -3702,19 +3702,19 @@
         <v>200455</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>172475</v>
+        <v>175606</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>228066</v>
+        <v>228553</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1928955309062527</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1659706569326777</v>
+        <v>0.1689834656149814</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.219465312262261</v>
+        <v>0.2199331998635753</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>387</v>
@@ -3723,19 +3723,19 @@
         <v>411275</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>375874</v>
+        <v>377453</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>454893</v>
+        <v>451453</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1997629919335925</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1825679942966638</v>
+        <v>0.1833348191088022</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2209487611514533</v>
+        <v>0.2192782006826708</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>590114</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>564367</v>
+        <v>564320</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>612475</v>
+        <v>613058</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.777933721456224</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.743992393136271</v>
+        <v>0.743929403755871</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8074117387889886</v>
+        <v>0.8081801529652555</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>619</v>
@@ -3848,19 +3848,19 @@
         <v>662189</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>641553</v>
+        <v>640346</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>680928</v>
+        <v>680682</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8435409680000797</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8172541404674994</v>
+        <v>0.8157160981179866</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.867412513000406</v>
+        <v>0.8670992701032726</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1167</v>
@@ -3869,19 +3869,19 @@
         <v>1252303</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1221530</v>
+        <v>1219220</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1281484</v>
+        <v>1282793</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8112993562537756</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7913634864044831</v>
+        <v>0.7898667568761133</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8302042734167534</v>
+        <v>0.831052404202246</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>168452</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>146091</v>
+        <v>145508</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>194199</v>
+        <v>194246</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2220662785437761</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1925882612110113</v>
+        <v>0.1918198470347444</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2560076068637288</v>
+        <v>0.2560705962441289</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>117</v>
@@ -3919,19 +3919,19 @@
         <v>122822</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>104083</v>
+        <v>104329</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>143458</v>
+        <v>144665</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1564590319999203</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1325874869995939</v>
+        <v>0.1329007298967274</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1827458595325005</v>
+        <v>0.1842839018820133</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>264</v>
@@ -3940,19 +3940,19 @@
         <v>291274</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>262093</v>
+        <v>260784</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>322047</v>
+        <v>324357</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1887006437462244</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1697957265832466</v>
+        <v>0.1689475957977537</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2086365135955168</v>
+        <v>0.2101332431238865</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>768156</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>742275</v>
+        <v>741442</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>788564</v>
+        <v>788201</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8210211829493983</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7933590222227386</v>
+        <v>0.7924693489265109</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8428335778321854</v>
+        <v>0.8424457980759923</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>819</v>
@@ -4065,19 +4065,19 @@
         <v>898436</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>873241</v>
+        <v>874454</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>920249</v>
+        <v>920007</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8624945098344591</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8383076214707412</v>
+        <v>0.8394724562530783</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8834354615422728</v>
+        <v>0.8832033372465117</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1583</v>
@@ -4086,19 +4086,19 @@
         <v>1666591</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1635673</v>
+        <v>1630916</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1699635</v>
+        <v>1699702</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.842870159395116</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8272336294958399</v>
+        <v>0.8248278255540207</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8595817671378533</v>
+        <v>0.8596157844461337</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>167454</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>147046</v>
+        <v>147409</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>193335</v>
+        <v>194168</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1789788170506017</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1571664221678143</v>
+        <v>0.1575542019240076</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2066409777772614</v>
+        <v>0.2075306510734891</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>138</v>
@@ -4136,19 +4136,19 @@
         <v>143235</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>121422</v>
+        <v>121664</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>168430</v>
+        <v>167217</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1375054901655409</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.116564538457727</v>
+        <v>0.1167966627534883</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1616923785292587</v>
+        <v>0.160527543746921</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>304</v>
@@ -4157,19 +4157,19 @@
         <v>310690</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>277646</v>
+        <v>277579</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>341608</v>
+        <v>346365</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.157129840604884</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1404182328621467</v>
+        <v>0.1403842155538662</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1727663705041601</v>
+        <v>0.1751721744459793</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>2711305</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2662698</v>
+        <v>2657617</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2759771</v>
+        <v>2757977</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8003735379926128</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7860248371076513</v>
+        <v>0.7845249070426741</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8146805223479382</v>
+        <v>0.8141507883786339</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2766</v>
@@ -4282,19 +4282,19 @@
         <v>2950790</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2906665</v>
+        <v>2904354</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2995158</v>
+        <v>2992061</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8338598545921787</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8213906501999677</v>
+        <v>0.8207376027752409</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8463978260736812</v>
+        <v>0.8455225564596968</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5364</v>
@@ -4303,19 +4303,19 @@
         <v>5662096</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5591396</v>
+        <v>5595084</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5719945</v>
+        <v>5723529</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8174821071399987</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8072745826193918</v>
+        <v>0.8078070045467235</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8258342279724606</v>
+        <v>0.8263516886496638</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>676245</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>627779</v>
+        <v>629573</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>724852</v>
+        <v>729933</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1996264620073872</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1853194776520616</v>
+        <v>0.1858492116213662</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2139751628923487</v>
+        <v>0.2154750929573258</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>567</v>
@@ -4353,19 +4353,19 @@
         <v>587922</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>543554</v>
+        <v>546651</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>632047</v>
+        <v>634358</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1661401454078213</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1536021739263189</v>
+        <v>0.1544774435403034</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1786093498000323</v>
+        <v>0.1792623972247595</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1194</v>
@@ -4374,19 +4374,19 @@
         <v>1264167</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1206318</v>
+        <v>1202734</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1334867</v>
+        <v>1331179</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1825178928600013</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1741657720275394</v>
+        <v>0.1736483113503363</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1927254173806082</v>
+        <v>0.1921929954532765</v>
       </c>
     </row>
     <row r="18">
